--- a/load_test_grpc.xlsx
+++ b/load_test_grpc.xlsx
@@ -951,7 +951,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="$A1:$XFD1048576"/>
@@ -1247,6 +1247,123 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>101.917ms</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8133.791ms</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>144.125ms</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>264.833ms</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>661.25ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>109.417ms</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7665.25ms</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>178.125ms</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>320.583ms</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>737.208ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>111.458ms</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>11265.291ms</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>232.75ms</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>495.291ms</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1641.208ms</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/load_test_grpc.xlsx
+++ b/load_test_grpc.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17540" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -26,6 +27,73 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <charset val="0"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
@@ -35,13 +103,14 @@
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -49,9 +118,9 @@
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -64,16 +133,38 @@
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -85,96 +176,6 @@
       <sz val="18"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,73 +186,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,109 +366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,17 +380,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,36 +425,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -476,151 +447,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -951,55 +952,65 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
         <v>2</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>./output/logs/output_client_1_1000.json</t>
-        </is>
+      <c r="B1" t="n">
+        <v>1000</v>
       </c>
       <c r="C1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E1" t="n">
-        <v>1000</v>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>0.0ms</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>0.0ms</t>
+        </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>229.625ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>21303.166ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>901.75ms</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>1642.375ms</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>5035.834ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
     </row>
@@ -1007,43 +1018,35 @@
       <c r="A2" t="n">
         <v>3</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>./output/logs/output_client_1_1000.json</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1000</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1000</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.0ms</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.0ms</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>110.5ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9987.917ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>166.291ms</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>288.417ms</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>781.417ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
     </row>
@@ -1051,43 +1054,35 @@
       <c r="A3" t="n">
         <v>4</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>./output/logs/output_client_1_1000.json</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1000</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1000</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.0ms</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.0ms</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>110.5ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9987.917ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>166.291ms</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>288.417ms</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>781.417ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
     </row>
@@ -1096,37 +1091,34 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1000</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.0ms</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>229.625ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>21303.166ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>901.75ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1642.375ms</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>5035.834ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
     </row>
@@ -1135,37 +1127,34 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
-        <v>1000</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.0ms</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>110.5ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9987.917ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>166.291ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>288.417ms</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>781.417ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
     </row>
@@ -1174,37 +1163,34 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
-        <v>1000</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.0ms</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>110.5ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9987.917ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>166.291ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>288.417ms</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>781.417ms</t>
+          <t>0.0ms</t>
         </is>
       </c>
     </row>
@@ -1213,37 +1199,34 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>1000</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0ms</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>110.5ms</t>
+          <t>12ms</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9987.917ms</t>
+          <t>1.0ms</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>166.291ms</t>
+          <t>4.0ms</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>288.417ms</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>781.417ms</t>
+          <t>10.0ms</t>
         </is>
       </c>
     </row>
@@ -1252,115 +1235,34 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
-        <v>1000</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0ms</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>101.917ms</t>
+          <t>12ms</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8133.791ms</t>
+          <t>1.0ms</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>144.125ms</t>
+          <t>4.0ms</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>264.833ms</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>661.25ms</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>109.417ms</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7665.25ms</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>178.125ms</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>320.583ms</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>737.208ms</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>111.458ms</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>11265.291ms</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>232.75ms</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>495.291ms</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1641.208ms</t>
+          <t>10.0ms</t>
         </is>
       </c>
     </row>
